--- a/test/testdata/Opencart_LoginData.xlsx
+++ b/test/testdata/Opencart_LoginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72088C-FAEB-4452-8130-FDCF78E25F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1C1F9-547F-4067-BD72-4631A08C78B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
